--- a/Resultados/Resultado_final_2.xlsx
+++ b/Resultados/Resultado_final_2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="104" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="572" uniqueCount="6">
   <si>
     <t>Número_de_nodo</t>
   </si>
@@ -82,10 +82,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="true"/>
-    <col min="2" max="2" width="24.5546875" customWidth="true"/>
-    <col min="3" max="3" width="6.5546875" customWidth="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true"/>
+    <col min="1" max="1" width="17.28515625" customWidth="true"/>
+    <col min="2" max="2" width="26.5703125" customWidth="true"/>
+    <col min="3" max="3" width="7" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -107,10 +107,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>26.735591091980687</v>
+        <v>100</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0">
         <v>2</v>
@@ -121,7 +121,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>33.352965372426134</v>
+        <v>20.511984477763043</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
@@ -135,7 +135,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>15.991387993599687</v>
+        <v>21.383640925484574</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
@@ -149,7 +149,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>33.353050258611653</v>
+        <v>18.4962941136803</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
@@ -163,7 +163,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0">
-        <v>9.9476138697583103</v>
+        <v>23.983816604937726</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
@@ -177,7 +177,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0">
-        <v>9.9442558573569446</v>
+        <v>31.354132938134764</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
@@ -191,7 +191,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="0">
-        <v>10.245432294682796</v>
+        <v>8.1895472828900111</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
@@ -205,7 +205,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="0">
-        <v>10.242670998623655</v>
+        <v>7.9374673362248416</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>3</v>
@@ -219,7 +219,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="0">
-        <v>6.3700439446040802</v>
+        <v>23.025323051572069</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
@@ -233,7 +233,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="0">
-        <v>8.4819199687799074</v>
+        <v>9.8482244096597231</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>3</v>
@@ -247,7 +247,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="0">
-        <v>33.188238405832642</v>
+        <v>7.5932136253894447</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>3</v>
@@ -261,7 +261,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="0">
-        <v>8.4842538300072832</v>
+        <v>8.6407708754701193</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>3</v>
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="0">
-        <v>5.7480425489800409</v>
+        <v>13.021118162143019</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>3</v>
@@ -289,7 +289,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="0">
-        <v>5.7462272840824076</v>
+        <v>12.00864323535788</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>3</v>
@@ -303,7 +303,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="0">
-        <v>5.760339129853306</v>
+        <v>7.0733078981421729</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>3</v>
@@ -317,7 +317,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="0">
-        <v>5.7595092304195505</v>
+        <v>6.9555074680425877</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>3</v>
@@ -331,7 +331,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="0">
-        <v>4.2831890267357657</v>
+        <v>7.7091829166712946</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>3</v>
@@ -345,10 +345,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="0">
-        <v>100</v>
+        <v>10.222873430579355</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="0">
         <v>2</v>
@@ -359,7 +359,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="0">
-        <v>4.2835437399447338</v>
+        <v>7.2823203745994336</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>3</v>
@@ -373,7 +373,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="0">
-        <v>26.080689434895358</v>
+        <v>17.130345248439703</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>3</v>
@@ -387,7 +387,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="0">
-        <v>4.082198192208959</v>
+        <v>8.2561412605437443</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>3</v>
@@ -401,7 +401,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="0">
-        <v>4.0830256380477081</v>
+        <v>8.2803955504224724</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>3</v>
@@ -415,7 +415,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="0">
-        <v>2.7532029700141223</v>
+        <v>6.8507370527230185</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>3</v>
@@ -429,7 +429,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="0">
-        <v>2.7556693460500421</v>
+        <v>6.7032611548678274</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>3</v>
@@ -443,7 +443,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="0">
-        <v>2.560539200875716</v>
+        <v>7.4631510210322647</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>3</v>
@@ -457,7 +457,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0">
-        <v>1.5674870210366423</v>
+        <v>6.9881238185030963</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>3</v>
@@ -471,7 +471,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="0">
-        <v>1.8889150146559908</v>
+        <v>6.9687886599562168</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>3</v>
@@ -485,7 +485,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="0">
-        <v>1.5681306474154857</v>
+        <v>6.9679285987039155</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>3</v>
@@ -499,7 +499,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="0">
-        <v>2.826393972740568</v>
+        <v>7.0517859409763695</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>3</v>
@@ -513,7 +513,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="0">
-        <v>2.8264868037430526</v>
+        <v>7.1028676140048184</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>3</v>
@@ -527,7 +527,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="0">
-        <v>2.5439657881532742</v>
+        <v>6.9234463305113252</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>3</v>
@@ -541,7 +541,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="0">
-        <v>2.5457603773231177</v>
+        <v>6.8058523063930227</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>3</v>
@@ -555,7 +555,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="0">
-        <v>3.3247612702950637</v>
+        <v>7.5484690989005649</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>3</v>
@@ -569,7 +569,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="0">
-        <v>1.7015968269080302</v>
+        <v>6.9552027841953965</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>3</v>
@@ -583,7 +583,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="0">
-        <v>3.8007701800318121</v>
+        <v>7.3034887501120709</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>3</v>
@@ -597,7 +597,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="0">
-        <v>1.7015474904037688</v>
+        <v>6.9550383760041061</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>3</v>
@@ -610,9 +610,7 @@
       <c r="A38" s="0">
         <v>41</v>
       </c>
-      <c r="B38" s="0">
-        <v>2.7263713582114035</v>
-      </c>
+      <c r="B38" s="0"/>
       <c r="C38" s="0" t="s">
         <v>3</v>
       </c>
@@ -624,9 +622,7 @@
       <c r="A39" s="0">
         <v>42</v>
       </c>
-      <c r="B39" s="0">
-        <v>2.7247607100080109</v>
-      </c>
+      <c r="B39" s="0"/>
       <c r="C39" s="0" t="s">
         <v>3</v>
       </c>
@@ -638,9 +634,7 @@
       <c r="A40" s="0">
         <v>43</v>
       </c>
-      <c r="B40" s="0">
-        <v>2.7123584215685272</v>
-      </c>
+      <c r="B40" s="0"/>
       <c r="C40" s="0" t="s">
         <v>3</v>
       </c>
@@ -652,9 +646,7 @@
       <c r="A41" s="0">
         <v>44</v>
       </c>
-      <c r="B41" s="0">
-        <v>2.7116082288129797</v>
-      </c>
+      <c r="B41" s="0"/>
       <c r="C41" s="0" t="s">
         <v>3</v>
       </c>
@@ -666,9 +658,7 @@
       <c r="A42" s="0">
         <v>45</v>
       </c>
-      <c r="B42" s="0">
-        <v>2.1497014178025666</v>
-      </c>
+      <c r="B42" s="0"/>
       <c r="C42" s="0" t="s">
         <v>3</v>
       </c>
@@ -680,9 +670,7 @@
       <c r="A43" s="0">
         <v>46</v>
       </c>
-      <c r="B43" s="0">
-        <v>2.151524454935609</v>
-      </c>
+      <c r="B43" s="0"/>
       <c r="C43" s="0" t="s">
         <v>3</v>
       </c>
@@ -694,9 +682,7 @@
       <c r="A44" s="0">
         <v>47</v>
       </c>
-      <c r="B44" s="0">
-        <v>2.1100561599712728</v>
-      </c>
+      <c r="B44" s="0"/>
       <c r="C44" s="0" t="s">
         <v>3</v>
       </c>
@@ -708,9 +694,7 @@
       <c r="A45" s="0">
         <v>48</v>
       </c>
-      <c r="B45" s="0">
-        <v>2.1058331231919842</v>
-      </c>
+      <c r="B45" s="0"/>
       <c r="C45" s="0" t="s">
         <v>3</v>
       </c>
@@ -722,9 +706,7 @@
       <c r="A46" s="0">
         <v>49</v>
       </c>
-      <c r="B46" s="0">
-        <v>3.2206709850281978</v>
-      </c>
+      <c r="B46" s="0"/>
       <c r="C46" s="0" t="s">
         <v>3</v>
       </c>
@@ -736,9 +718,7 @@
       <c r="A47" s="0">
         <v>50</v>
       </c>
-      <c r="B47" s="0">
-        <v>3.2267111442725196</v>
-      </c>
+      <c r="B47" s="0"/>
       <c r="C47" s="0" t="s">
         <v>3</v>
       </c>
@@ -750,9 +730,7 @@
       <c r="A48" s="0">
         <v>51</v>
       </c>
-      <c r="B48" s="0">
-        <v>3.1782297295405888</v>
-      </c>
+      <c r="B48" s="0"/>
       <c r="C48" s="0" t="s">
         <v>3</v>
       </c>
@@ -764,9 +742,7 @@
       <c r="A49" s="0">
         <v>52</v>
       </c>
-      <c r="B49" s="0">
-        <v>3.1706089606560082</v>
-      </c>
+      <c r="B49" s="0"/>
       <c r="C49" s="0" t="s">
         <v>3</v>
       </c>
